--- a/USA Dollars and Donors.xlsx
+++ b/USA Dollars and Donors.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\D3LiveDemo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="18855" windowHeight="9660"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="12135" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>STATE</t>
   </si>
@@ -28,12 +23,15 @@
     <t>DONORS</t>
   </si>
   <si>
-    <t>ALUMNI_DONORS</t>
+    <t>AL_DONORS</t>
   </si>
   <si>
     <t>AMOUNT</t>
   </si>
   <si>
+    <t>AK</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -64,6 +62,9 @@
     <t>GA</t>
   </si>
   <si>
+    <t>HI</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
@@ -181,16 +182,18 @@
     <t>WY</t>
   </si>
   <si>
-    <t>select t.state,count(distinct t.donorid) donors
-,(select count(distinct t1.donorid)  from jnmead01.coc_donors_mapped t1
-  where t1.state = t.state and t1.rectype = 'AL') alumni_donors
+    <t>select -- coc donors by state including campus priorities and bucks for brains
+t.state
+,count(distinct t.donorid) donors
+,(select count(distinct t1.donorid) from coc_donors_mapped t1
+  where t1.rectype = 'AL' and t1.state = t.state) al_donors
 ,sum(t.total_philanthropy) amount
-from jnmead01.coc_donors_mapped t
-where exists (select 1 from advance.tms_states ts
-            where ts.state_code = t.state
-            and trim(ts.national_region) is not null)
-and t.state not in ('HI','AK')
-group by t.state</t>
+from coc_donors_mapped t,advance.tms_states ts
+where t.state = ts.state_code
+and trim(ts.national_region) is not null
+and trim(t.country) is null
+group by t.state
+order by 1</t>
   </si>
 </sst>
 </file>
@@ -247,9 +250,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -297,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,14 +541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125"/>
+    <col min="2" max="2" width="10.28515625"/>
+    <col min="3" max="3" width="13.140625"/>
+    <col min="4" max="4" width="11"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -569,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>2757785.8</v>
+        <v>59292.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,13 +589,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>44432</v>
+        <v>2758280.8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,13 +603,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>2484402.35</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>858</v>
+        <v>231</v>
       </c>
       <c r="C5">
-        <v>438</v>
+        <v>138</v>
       </c>
       <c r="D5">
-        <v>10561802.859999999</v>
+        <v>2484827.35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,13 +631,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="C6">
-        <v>142</v>
+        <v>441</v>
       </c>
       <c r="D6">
-        <v>4310116.9400000004</v>
+        <v>11239181.779999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D7">
-        <v>1248444.4099999999</v>
+        <v>4856441.3600000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,13 +659,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>950665.19</v>
+        <v>1248444.4099999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,13 +673,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>258431.86</v>
+        <v>4851075.55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1563</v>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>910</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>15445824.43</v>
+        <v>258431.86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,13 +701,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>674</v>
+        <v>1600</v>
       </c>
       <c r="C11">
-        <v>410</v>
+        <v>916</v>
       </c>
       <c r="D11">
-        <v>27491999.329999998</v>
+        <v>15549075.08</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,13 +715,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>691</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="D12">
-        <v>485034</v>
+        <v>27495799.329999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -723,13 +729,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>30428.57</v>
+        <v>584958</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -737,13 +743,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>743</v>
+        <v>83</v>
       </c>
       <c r="C14">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>2089647.89</v>
+        <v>485089</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>4015</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>1574</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>15735231.24</v>
+        <v>30433.57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -765,13 +771,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>206</v>
+        <v>797</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="D16">
-        <v>626822.91</v>
+        <v>87516808.390000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>37314</v>
+        <v>4133</v>
       </c>
       <c r="C17">
-        <v>16850</v>
+        <v>1588</v>
       </c>
       <c r="D17">
-        <v>493332240.26999998</v>
+        <v>16132934.449999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,13 +799,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="C18">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>85439.679999999993</v>
+        <v>627027.91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,13 +813,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>291</v>
+        <v>38650</v>
       </c>
       <c r="C19">
-        <v>118</v>
+        <v>16993</v>
       </c>
       <c r="D19">
-        <v>625271.92000000004</v>
+        <v>641392810.28999996</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -821,13 +827,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>450</v>
+        <v>111</v>
       </c>
       <c r="C20">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>712015.26</v>
+        <v>85489.68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -835,13 +841,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>297</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="D21">
-        <v>196654.25</v>
+        <v>627781.92000000004</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -849,13 +855,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>332</v>
+        <v>459</v>
       </c>
       <c r="C22">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D22">
-        <v>997964.69</v>
+        <v>712290.26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -863,13 +869,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>1164253.32</v>
+        <v>196654.25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -877,13 +883,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C24">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D24">
-        <v>373202.24</v>
+        <v>998519.68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -891,13 +897,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>98984.09</v>
+        <v>1164603.32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -905,13 +911,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D26">
-        <v>24526.84</v>
+        <v>374034.24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,13 +925,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>649</v>
+        <v>78</v>
       </c>
       <c r="C27">
-        <v>408</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>6007157.1799999997</v>
+        <v>99034.09</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -933,13 +939,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>11815</v>
+        <v>24526.84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,13 +953,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>49</v>
+        <v>665</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>412</v>
       </c>
       <c r="D29">
-        <v>643970.91</v>
+        <v>6010312.1799999997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -961,13 +967,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>29785</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -975,13 +981,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>437</v>
+        <v>50</v>
       </c>
       <c r="C31">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>6321952.8600000003</v>
+        <v>644140.91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -989,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>172177.23</v>
+        <v>29810</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1003,13 +1009,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>446</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="D33">
-        <v>164344.76</v>
+        <v>6327017.8600000003</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,13 +1023,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>567</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>22770888.09</v>
+        <v>172177.23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,13 +1037,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>1155</v>
+        <v>64</v>
       </c>
       <c r="C35">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>3338293.35</v>
+        <v>164419.76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,13 +1051,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>88</v>
+        <v>589</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="D36">
-        <v>2153187.14</v>
+        <v>24272893.09</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,13 +1065,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>1229</v>
       </c>
       <c r="C37">
-        <v>71</v>
+        <v>596</v>
       </c>
       <c r="D37">
-        <v>1039321.97</v>
+        <v>3378758.68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,13 +1079,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>527</v>
+        <v>91</v>
       </c>
       <c r="C38">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>1844683.95</v>
+        <v>2153837.14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1087,13 +1093,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D39">
-        <v>2149119.9900000002</v>
+        <v>1039486.97</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,13 +1107,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>359</v>
+        <v>554</v>
       </c>
       <c r="C40">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D40">
-        <v>1574745.05</v>
+        <v>2044169.54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,13 +1121,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>5608</v>
+        <v>2149169.9900000002</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1129,13 +1135,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>789</v>
+        <v>366</v>
       </c>
       <c r="C42">
-        <v>459</v>
+        <v>239</v>
       </c>
       <c r="D42">
-        <v>4143099.24</v>
+        <v>1576550.05</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1143,13 +1149,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>821</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>17998366.719999999</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1157,13 +1163,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>90</v>
+        <v>810</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>464</v>
       </c>
       <c r="D44">
-        <v>153489.20000000001</v>
+        <v>4145550.24</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1171,13 +1177,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>643</v>
+        <v>836</v>
       </c>
       <c r="C45">
-        <v>424</v>
+        <v>489</v>
       </c>
       <c r="D45">
-        <v>2738975.57</v>
+        <v>18019251.719999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,13 +1191,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>3408.14</v>
+        <v>153489.20000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,13 +1205,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>144</v>
+        <v>662</v>
       </c>
       <c r="C47">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="D47">
-        <v>470976.28</v>
+        <v>2750587.57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,13 +1219,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="C48">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>369339.27</v>
+        <v>3463.14</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1227,13 +1233,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="C49">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>345587.44</v>
+        <v>471208.28</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,12 +1247,40 @@
         <v>52</v>
       </c>
       <c r="B50">
+        <v>203</v>
+      </c>
+      <c r="C50">
+        <v>92</v>
+      </c>
+      <c r="D50">
+        <v>370399.27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>89</v>
+      </c>
+      <c r="C51">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>363777.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
         <v>12</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>10</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>5430</v>
       </c>
     </row>
@@ -1268,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/USA Dollars and Donors.xlsx
+++ b/USA Dollars and Donors.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\D3Playground\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="585" windowWidth="12135" windowHeight="9660"/>
   </bookViews>
@@ -237,9 +242,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,6 +256,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -297,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,7 +555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,7 +563,7 @@
     <col min="1" max="1" width="8.42578125"/>
     <col min="2" max="2" width="10.28515625"/>
     <col min="3" max="3" width="13.140625"/>
-    <col min="4" max="4" width="11"/>
+    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,7 +576,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -580,7 +590,7 @@
       <c r="C2">
         <v>28</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>59292.75</v>
       </c>
     </row>
@@ -594,7 +604,7 @@
       <c r="C3">
         <v>171</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2758280.8</v>
       </c>
     </row>
@@ -608,7 +618,7 @@
       <c r="C4">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>44432</v>
       </c>
     </row>
@@ -622,7 +632,7 @@
       <c r="C5">
         <v>138</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2484827.35</v>
       </c>
     </row>
@@ -636,7 +646,7 @@
       <c r="C6">
         <v>441</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>11239181.779999999</v>
       </c>
     </row>
@@ -650,7 +660,7 @@
       <c r="C7">
         <v>142</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>4856441.3600000003</v>
       </c>
     </row>
@@ -664,7 +674,7 @@
       <c r="C8">
         <v>89</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1248444.4099999999</v>
       </c>
     </row>
@@ -678,7 +688,7 @@
       <c r="C9">
         <v>37</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>4851075.55</v>
       </c>
     </row>
@@ -692,7 +702,7 @@
       <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>258431.86</v>
       </c>
     </row>
@@ -706,7 +716,7 @@
       <c r="C11">
         <v>916</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>15549075.08</v>
       </c>
     </row>
@@ -720,7 +730,7 @@
       <c r="C12">
         <v>412</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>27495799.329999998</v>
       </c>
     </row>
@@ -734,7 +744,7 @@
       <c r="C13">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>584958</v>
       </c>
     </row>
@@ -748,7 +758,7 @@
       <c r="C14">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>485089</v>
       </c>
     </row>
@@ -762,7 +772,7 @@
       <c r="C15">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>30433.57</v>
       </c>
     </row>
@@ -776,7 +786,7 @@
       <c r="C16">
         <v>280</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>87516808.390000001</v>
       </c>
     </row>
@@ -790,7 +800,7 @@
       <c r="C17">
         <v>1588</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>16132934.449999999</v>
       </c>
     </row>
@@ -804,7 +814,7 @@
       <c r="C18">
         <v>51</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>627027.91</v>
       </c>
     </row>
@@ -818,7 +828,7 @@
       <c r="C19">
         <v>16993</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>641392810.28999996</v>
       </c>
     </row>
@@ -832,7 +842,7 @@
       <c r="C20">
         <v>71</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>85489.68</v>
       </c>
     </row>
@@ -846,7 +856,7 @@
       <c r="C21">
         <v>118</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>627781.92000000004</v>
       </c>
     </row>
@@ -860,7 +870,7 @@
       <c r="C22">
         <v>192</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>712290.26</v>
       </c>
     </row>
@@ -874,7 +884,7 @@
       <c r="C23">
         <v>19</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>196654.25</v>
       </c>
     </row>
@@ -888,7 +898,7 @@
       <c r="C24">
         <v>145</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>998519.68</v>
       </c>
     </row>
@@ -902,7 +912,7 @@
       <c r="C25">
         <v>74</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1164603.32</v>
       </c>
     </row>
@@ -916,7 +926,7 @@
       <c r="C26">
         <v>178</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>374034.24</v>
       </c>
     </row>
@@ -930,7 +940,7 @@
       <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>99034.09</v>
       </c>
     </row>
@@ -944,7 +954,7 @@
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>24526.84</v>
       </c>
     </row>
@@ -958,7 +968,7 @@
       <c r="C29">
         <v>412</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>6010312.1799999997</v>
       </c>
     </row>
@@ -972,7 +982,7 @@
       <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>11840</v>
       </c>
     </row>
@@ -986,7 +996,7 @@
       <c r="C31">
         <v>16</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>644140.91</v>
       </c>
     </row>
@@ -1000,7 +1010,7 @@
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>29810</v>
       </c>
     </row>
@@ -1014,7 +1024,7 @@
       <c r="C33">
         <v>161</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>6327017.8600000003</v>
       </c>
     </row>
@@ -1028,7 +1038,7 @@
       <c r="C34">
         <v>31</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>172177.23</v>
       </c>
     </row>
@@ -1042,7 +1052,7 @@
       <c r="C35">
         <v>45</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>164419.76</v>
       </c>
     </row>
@@ -1056,7 +1066,7 @@
       <c r="C36">
         <v>219</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>24272893.09</v>
       </c>
     </row>
@@ -1070,7 +1080,7 @@
       <c r="C37">
         <v>596</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>3378758.68</v>
       </c>
     </row>
@@ -1084,7 +1094,7 @@
       <c r="C38">
         <v>39</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>2153837.14</v>
       </c>
     </row>
@@ -1098,7 +1108,7 @@
       <c r="C39">
         <v>71</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>1039486.97</v>
       </c>
     </row>
@@ -1112,7 +1122,7 @@
       <c r="C40">
         <v>190</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>2044169.54</v>
       </c>
     </row>
@@ -1126,7 +1136,7 @@
       <c r="C41">
         <v>17</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>2149169.9900000002</v>
       </c>
     </row>
@@ -1140,7 +1150,7 @@
       <c r="C42">
         <v>239</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>1576550.05</v>
       </c>
     </row>
@@ -1154,7 +1164,7 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>5733</v>
       </c>
     </row>
@@ -1168,7 +1178,7 @@
       <c r="C44">
         <v>464</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>4145550.24</v>
       </c>
     </row>
@@ -1182,7 +1192,7 @@
       <c r="C45">
         <v>489</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>18019251.719999999</v>
       </c>
     </row>
@@ -1196,7 +1206,7 @@
       <c r="C46">
         <v>55</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>153489.20000000001</v>
       </c>
     </row>
@@ -1210,7 +1220,7 @@
       <c r="C47">
         <v>427</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>2750587.57</v>
       </c>
     </row>
@@ -1224,7 +1234,7 @@
       <c r="C48">
         <v>9</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>3463.14</v>
       </c>
     </row>
@@ -1238,7 +1248,7 @@
       <c r="C49">
         <v>93</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>471208.28</v>
       </c>
     </row>
@@ -1252,7 +1262,7 @@
       <c r="C50">
         <v>92</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>370399.27</v>
       </c>
     </row>
@@ -1266,7 +1276,7 @@
       <c r="C51">
         <v>52</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>363777.44</v>
       </c>
     </row>
@@ -1280,7 +1290,7 @@
       <c r="C52">
         <v>10</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>5430</v>
       </c>
     </row>
